--- a/test_info_nowe.xlsx
+++ b/test_info_nowe.xlsx
@@ -480,10 +480,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="D2" t="n">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -505,13 +505,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D3" t="n">
-        <v>661</v>
+        <v>393</v>
       </c>
       <c r="E3" t="n">
-        <v>339</v>
+        <v>207</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -530,13 +530,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="D4" t="n">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="E4" t="n">
-        <v>655</v>
+        <v>614</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -555,13 +555,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D5" t="n">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="E5" t="n">
-        <v>868</v>
+        <v>507</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="D6" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>952</v>
+        <v>372</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -605,13 +605,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>979</v>
+        <v>590</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>992</v>
+        <v>299</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -655,13 +655,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>999</v>
+        <v>299</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>999</v>
+        <v>300</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -705,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>997</v>
+        <v>300</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -755,13 +755,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -805,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="D15" t="n">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="D16" t="n">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -855,10 +855,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="D18" t="n">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="D19" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D20" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="D21" t="n">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         <v>8</v>
       </c>
       <c r="C22" t="n">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="D22" t="n">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>9</v>
       </c>
       <c r="C23" t="n">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="D23" t="n">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1030,10 +1030,10 @@
         <v>10</v>
       </c>
       <c r="C24" t="n">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="D24" t="n">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1055,10 +1055,10 @@
         <v>11</v>
       </c>
       <c r="C25" t="n">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="D25" t="n">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1080,10 +1080,10 @@
         <v>12</v>
       </c>
       <c r="C26" t="n">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="D26" t="n">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D27" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E27" t="n">
-        <v>177</v>
+        <v>271</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="D28" t="n">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="D29" t="n">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="D30" t="n">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1205,10 +1205,10 @@
         <v>4</v>
       </c>
       <c r="C31" t="n">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="D31" t="n">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="D32" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1255,10 +1255,10 @@
         <v>6</v>
       </c>
       <c r="C33" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D33" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1280,10 +1280,10 @@
         <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="D34" t="n">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>8</v>
       </c>
       <c r="C35" t="n">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="D35" t="n">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1330,10 +1330,10 @@
         <v>9</v>
       </c>
       <c r="C36" t="n">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="D36" t="n">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>10</v>
       </c>
       <c r="C37" t="n">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="D37" t="n">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1380,10 +1380,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="n">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="D38" t="n">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1405,10 +1405,10 @@
         <v>12</v>
       </c>
       <c r="C39" t="n">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="D39" t="n">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>30</v>
       </c>
       <c r="C40" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D40" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E40" t="n">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1455,10 +1455,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="D41" t="n">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1480,10 +1480,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="D42" t="n">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="D43" t="n">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="n">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="D44" t="n">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -1555,10 +1555,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="D45" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -1580,10 +1580,10 @@
         <v>6</v>
       </c>
       <c r="C46" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D46" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -1605,10 +1605,10 @@
         <v>7</v>
       </c>
       <c r="C47" t="n">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="D47" t="n">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -1630,10 +1630,10 @@
         <v>8</v>
       </c>
       <c r="C48" t="n">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="D48" t="n">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>9</v>
       </c>
       <c r="C49" t="n">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="D49" t="n">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -1680,10 +1680,10 @@
         <v>10</v>
       </c>
       <c r="C50" t="n">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="D50" t="n">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>11</v>
       </c>
       <c r="C51" t="n">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="D51" t="n">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -1730,13 +1730,13 @@
         <v>12</v>
       </c>
       <c r="C52" t="n">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -1755,13 +1755,13 @@
         <v>30</v>
       </c>
       <c r="C53" t="n">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
